--- a/Routine/13-综合示例/Project/Project_analysis.xlsx
+++ b/Routine/13-综合示例/Project/Project_analysis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>Project</t>
   </si>
@@ -23,12 +23,12 @@
     <t>spi_flash.o</t>
   </si>
   <si>
+    <t>uart.o</t>
+  </si>
+  <si>
     <t>protocol.o</t>
   </si>
   <si>
-    <t>uart.o</t>
-  </si>
-  <si>
     <t>startup_stm32f10x_md.o</t>
   </si>
   <si>
@@ -98,16 +98,19 @@
     <t>atan.o</t>
   </si>
   <si>
+    <t>stm32f10x_usart.o</t>
+  </si>
+  <si>
     <t>soft_i2c.o</t>
   </si>
   <si>
-    <t>stm32f10x_usart.o</t>
-  </si>
-  <si>
     <t>oled.o</t>
   </si>
   <si>
     <t>stm32f10x_gpio.o</t>
+  </si>
+  <si>
+    <t>stm32f10x_dma.o</t>
   </si>
   <si>
     <t>dadd.o</t>
@@ -431,17 +434,17 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$101</c:f>
+              <c:f>ram_percent!$A$3:$A$102</c:f>
               <c:strCache>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>spi_flash.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>uart.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>protocol.o</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>uart.o</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>startup_stm32f10x_md.o</c:v>
@@ -488,7 +491,7 @@
                 <c:pt idx="17">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -496,65 +499,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$101</c:f>
+              <c:f>ram_percent!$B$3:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>45.72602081298828</c:v>
+                  <c:v>41.07498931884766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.68783283233643</c:v>
+                  <c:v>20.52253723144531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.52309036254883</c:v>
+                  <c:v>12.29557228088379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.36767292022705</c:v>
+                  <c:v>10.21140766143799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.36767292022705</c:v>
+                  <c:v>10.21140766143799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.531083583831787</c:v>
+                  <c:v>2.273633718490601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.576376557350159</c:v>
+                  <c:v>1.416035056114197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9769093990325928</c:v>
+                  <c:v>0.8775428533554077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3552397787570953</c:v>
+                  <c:v>0.3191064894199371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2220248728990555</c:v>
+                  <c:v>0.1994415670633316</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2220248728990555</c:v>
+                  <c:v>0.1994415670633316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.09991119056940079</c:v>
+                  <c:v>0.08974870294332504</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08880994468927383</c:v>
+                  <c:v>0.07977662235498428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08880994468927383</c:v>
+                  <c:v>0.07977662235498428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04440497234463692</c:v>
+                  <c:v>0.03988831117749214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.04440497234463692</c:v>
+                  <c:v>0.03988831117749214</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.04440497234463692</c:v>
+                  <c:v>0.03988831117749214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03330373018980026</c:v>
-                </c:pt>
-                <c:pt idx="98">
+                  <c:v>0.02991623431444168</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -622,9 +625,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$101</c:f>
+              <c:f>flash_percent!$A$3:$A$102</c:f>
               <c:strCache>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
@@ -680,10 +683,10 @@
                   <c:v>atan.o</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>stm32f10x_usart.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>soft_i2c.o</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>stm32f10x_usart.o</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>oled.o</c:v>
@@ -692,234 +695,237 @@
                   <c:v>stm32f10x_gpio.o</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>stm32f10x_dma.o</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>action.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>timer.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>ps2.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>system_stm32f10x.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>dadd.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>_scanf_int.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>cos_i.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>sin_i.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>startup_stm32f10x_md.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>stm32f10x_tim.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>ddiv.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>systick.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>depilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>fadd.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>poly.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>dsqrt.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>sin.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>cos.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>fdiv.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>global.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>ultrasonic.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>stm32f10x_spi.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>misc.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>fepilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>ctype_c.o</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>fmul.o</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>uldiv.o</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>dcmp4.o</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>rcc.o</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>__dczerorl2.o</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>sqrt.o</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>sys.o</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>fmin.o</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>fmax.o</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>_sgetc.o</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>dfixi.o</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>servopid.o</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>__0sscanf.o</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>led.o</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>beep.o</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>ffixi.o</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>dfixul.o</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>cdrcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>cdcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>dscalb.o</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>ffixui.o</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>scanf_char.o</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>fpclassify.o</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>llsshr.o</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>dflti.o</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>dunder.o</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>llushr.o</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>llshl.o</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>_chval.o</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>dfltui.o</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>dfltul.o</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>cfrcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>cfcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>fflti.o</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>strcpy.o</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>errno.o</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>strlen.o</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>ffltui.o</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>isspace_c.o</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -927,305 +933,308 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$101</c:f>
+              <c:f>flash_percent!$B$3:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12.81523513793945</c:v>
+                  <c:v>12.76270008087158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.571750640869141</c:v>
+                  <c:v>9.532511711120606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.390259742736816</c:v>
+                  <c:v>6.364062786102295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.767848014831543</c:v>
+                  <c:v>5.744202613830566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.723212718963623</c:v>
+                  <c:v>5.699750423431397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.751159191131592</c:v>
+                  <c:v>4.731681823730469</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.245294570922852</c:v>
+                  <c:v>4.227891445159912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.141146183013916</c:v>
+                  <c:v>3.156100988388062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.737619876861572</c:v>
+                  <c:v>2.726397037506104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.628511905670166</c:v>
+                  <c:v>2.617736339569092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.469809293746948</c:v>
+                  <c:v>2.459684371948242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.303667545318604</c:v>
+                  <c:v>2.294223785400391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.177201271057129</c:v>
+                  <c:v>2.168276071548462</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.01353931427002</c:v>
+                  <c:v>2.005284786224365</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.934188008308411</c:v>
+                  <c:v>2.005284786224365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.874674558639526</c:v>
+                  <c:v>1.857111096382141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.775485396385193</c:v>
+                  <c:v>1.768206834793091</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.725890874862671</c:v>
+                  <c:v>1.718815565109253</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.646539568901062</c:v>
+                  <c:v>1.654606938362122</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.408485651016235</c:v>
+                  <c:v>1.639789581298828</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.200188517570496</c:v>
+                  <c:v>1.195268273353577</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.180350661277771</c:v>
+                  <c:v>1.175511837005615</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.021648049354553</c:v>
+                  <c:v>1.056972861289978</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.915019690990448</c:v>
+                  <c:v>1.017459750175476</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9125399589538574</c:v>
+                  <c:v>0.9112685918807983</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8629454374313355</c:v>
+                  <c:v>0.9087990522384644</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8282292485237122</c:v>
+                  <c:v>0.8594077825546265</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.823269784450531</c:v>
+                  <c:v>0.8248339295387268</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7439184784889221</c:v>
+                  <c:v>0.8198947906494141</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6844049692153931</c:v>
+                  <c:v>0.7408688068389893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6744861006736755</c:v>
+                  <c:v>0.6815992593765259</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6695266366004944</c:v>
+                  <c:v>0.6717210412025452</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5653780102729797</c:v>
+                  <c:v>0.6667819023132324</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5504996776580811</c:v>
+                  <c:v>0.5630602836608887</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4959456324577332</c:v>
+                  <c:v>0.5482429265975952</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4612294435501099</c:v>
+                  <c:v>0.4939125180244446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4364321529865265</c:v>
+                  <c:v>0.4593386650085449</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.4215537905693054</c:v>
+                  <c:v>0.434643030166626</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4017159640789032</c:v>
+                  <c:v>0.4198256433010101</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3967565298080444</c:v>
+                  <c:v>0.4000691473484039</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3868376016616821</c:v>
+                  <c:v>0.3951300084590912</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3074862957000732</c:v>
+                  <c:v>0.3852517604827881</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2926079332828522</c:v>
+                  <c:v>0.3062257766723633</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.287648469209671</c:v>
+                  <c:v>0.2914083898067474</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2777295708656311</c:v>
+                  <c:v>0.2864692807197571</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2777295708656311</c:v>
+                  <c:v>0.2765910029411316</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.27277010679245</c:v>
+                  <c:v>0.2765910029411316</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2578917443752289</c:v>
+                  <c:v>0.2716518938541412</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2479728162288666</c:v>
+                  <c:v>0.2568345069885254</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2430133670568466</c:v>
+                  <c:v>0.2469562590122223</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2380539029836655</c:v>
+                  <c:v>0.2420171350240707</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2330944538116455</c:v>
+                  <c:v>0.2370780110359192</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2132566273212433</c:v>
+                  <c:v>0.2321388870477676</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1884593516588211</c:v>
+                  <c:v>0.2123823910951614</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17854043841362</c:v>
+                  <c:v>0.1876867562532425</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1636620610952377</c:v>
+                  <c:v>0.1778085082769394</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1636620610952377</c:v>
+                  <c:v>0.1629911363124847</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1587026119232178</c:v>
+                  <c:v>0.1629911363124847</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1537431478500366</c:v>
+                  <c:v>0.1580520123243332</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1487836986780167</c:v>
+                  <c:v>0.1531128883361816</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1388647854328156</c:v>
+                  <c:v>0.1481737643480301</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1388647854328156</c:v>
+                  <c:v>0.1382955014705658</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1388647854328156</c:v>
+                  <c:v>0.1382955014705658</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1289458721876144</c:v>
+                  <c:v>0.1382955014705658</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1239864081144333</c:v>
+                  <c:v>0.1284172534942627</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1190269514918327</c:v>
+                  <c:v>0.1234781295061112</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1190269514918327</c:v>
+                  <c:v>0.1185390055179596</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1190269514918327</c:v>
+                  <c:v>0.1185390055179596</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1140674948692322</c:v>
+                  <c:v>0.1185390055179596</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1091080382466316</c:v>
+                  <c:v>0.113599881529808</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.09918913245201111</c:v>
+                  <c:v>0.1086607575416565</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.09918913245201111</c:v>
+                  <c:v>0.0987825021147728</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.09918913245201111</c:v>
+                  <c:v>0.0987825021147728</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.09422967582941055</c:v>
+                  <c:v>0.0987825021147728</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.08927021920681</c:v>
+                  <c:v>0.09384337812662125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.08927021920681</c:v>
+                  <c:v>0.0889042541384697</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.08927021920681</c:v>
+                  <c:v>0.0889042541384697</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08927021920681</c:v>
+                  <c:v>0.0889042541384697</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08431076258420944</c:v>
+                  <c:v>0.0889042541384697</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08431076258420944</c:v>
+                  <c:v>0.08396513015031815</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.07935130596160889</c:v>
+                  <c:v>0.08396513015031815</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.07439184933900833</c:v>
+                  <c:v>0.0790260061621666</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07439184933900833</c:v>
+                  <c:v>0.07408688217401505</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.06943239271640778</c:v>
+                  <c:v>0.07408688217401505</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.06447293609380722</c:v>
+                  <c:v>0.0691477507352829</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.05951347574591637</c:v>
+                  <c:v>0.06420862674713135</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.04959456622600555</c:v>
+                  <c:v>0.0592695027589798</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.04959456622600555</c:v>
+                  <c:v>0.0493912510573864</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.044635109603405</c:v>
+                  <c:v>0.0493912510573864</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.044635109603405</c:v>
+                  <c:v>0.04445212706923485</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03967565298080444</c:v>
+                  <c:v>0.04445212706923485</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03471619635820389</c:v>
+                  <c:v>0.0395130030810833</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.02479728311300278</c:v>
+                  <c:v>0.03457387536764145</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.02479728311300278</c:v>
+                  <c:v>0.0246956255286932</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.01983782649040222</c:v>
+                  <c:v>0.0246956255286932</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.01983782649040222</c:v>
+                  <c:v>0.01975650154054165</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.009918913245201111</c:v>
+                  <c:v>0.01975650154054165</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.009918913245201111</c:v>
+                  <c:v>0.009878250770270824</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>0.009878250770270824</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1330,8 +1339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H101" totalsRowCount="1">
-  <autoFilter ref="A2:H100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H102" totalsRowCount="1">
+  <autoFilter ref="A2:H101"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -1347,8 +1356,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H101" totalsRowCount="1">
-  <autoFilter ref="A2:H100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H102" totalsRowCount="1">
+  <autoFilter ref="A2:H101"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1648,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1664,28 +1673,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1693,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45.72602081298828</v>
+        <v>41.07498931884766</v>
       </c>
       <c r="C3" s="1">
         <v>4119</v>
@@ -1719,25 +1728,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>13.68783283233643</v>
+        <v>20.52253723144531</v>
       </c>
       <c r="C4" s="1">
-        <v>1233</v>
+        <v>2058</v>
       </c>
       <c r="D4" s="1">
-        <v>2577</v>
+        <v>1278</v>
       </c>
       <c r="E4" s="1">
-        <v>2576</v>
+        <v>1268</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1">
-        <v>1232</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1745,25 +1754,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.52309036254883</v>
+        <v>12.29557228088379</v>
       </c>
       <c r="C5" s="1">
-        <v>1038</v>
+        <v>1233</v>
       </c>
       <c r="D5" s="1">
-        <v>1670</v>
+        <v>2577</v>
       </c>
       <c r="E5" s="1">
-        <v>1656</v>
+        <v>2576</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>1024</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1771,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>11.36767292022705</v>
+        <v>10.21140766143799</v>
       </c>
       <c r="C6" s="1">
         <v>1024</v>
@@ -1797,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>11.36767292022705</v>
+        <v>10.21140766143799</v>
       </c>
       <c r="C7" s="1">
         <v>1024</v>
@@ -1823,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2.531083583831787</v>
+        <v>2.273633718490601</v>
       </c>
       <c r="C8" s="1">
         <v>228</v>
@@ -1849,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1.576376557350159</v>
+        <v>1.416035056114197</v>
       </c>
       <c r="C9" s="1">
         <v>142</v>
@@ -1875,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>0.9769093990325928</v>
+        <v>0.8775428533554077</v>
       </c>
       <c r="C10" s="1">
         <v>88</v>
@@ -1901,7 +1910,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>0.3552397787570953</v>
+        <v>0.3191064894199371</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
@@ -1927,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2220248728990555</v>
+        <v>0.1994415670633316</v>
       </c>
       <c r="C12" s="1">
         <v>20</v>
@@ -1953,16 +1962,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>0.2220248728990555</v>
+        <v>0.1994415670633316</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="E13" s="1">
-        <v>760</v>
+        <v>792</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1979,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>0.09991119056940079</v>
+        <v>0.08974870294332504</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
@@ -2005,7 +2014,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>0.08880994468927383</v>
+        <v>0.07977662235498428</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
@@ -2031,16 +2040,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>0.08880994468927383</v>
+        <v>0.07977662235498428</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E16" s="1">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2057,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>0.04440497234463692</v>
+        <v>0.03988831117749214</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2083,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>0.04440497234463692</v>
+        <v>0.03988831117749214</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -2109,7 +2118,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>0.04440497234463692</v>
+        <v>0.03988831117749214</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2135,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>0.03330373018980026</v>
+        <v>0.02991623431444168</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -2156,35 +2165,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H101">
+      <c r="H102">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -2200,7 +2209,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2216,28 +2225,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2245,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>12.81523513793945</v>
+        <v>12.76270008087158</v>
       </c>
       <c r="C3" s="1">
         <v>5168</v>
@@ -2271,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>9.571750640869141</v>
+        <v>9.532511711120606</v>
       </c>
       <c r="C4" s="1">
         <v>3860</v>
@@ -2294,10 +2303,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6.390259742736816</v>
+        <v>6.364062786102295</v>
       </c>
       <c r="C5" s="1">
         <v>2577</v>
@@ -2323,7 +2332,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>5.767848014831543</v>
+        <v>5.744202613830566</v>
       </c>
       <c r="C6" s="1">
         <v>2326</v>
@@ -2349,7 +2358,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>5.723212718963623</v>
+        <v>5.699750423431397</v>
       </c>
       <c r="C7" s="1">
         <v>2308</v>
@@ -2375,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>4.751159191131592</v>
+        <v>4.731681823730469</v>
       </c>
       <c r="C8" s="1">
         <v>1916</v>
@@ -2401,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>4.245294570922852</v>
+        <v>4.227891445159912</v>
       </c>
       <c r="C9" s="1">
         <v>1712</v>
@@ -2424,28 +2433,28 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>4.141146183013916</v>
+        <v>3.156100988388062</v>
       </c>
       <c r="C10" s="1">
-        <v>1670</v>
+        <v>1278</v>
       </c>
       <c r="D10" s="1">
-        <v>1038</v>
+        <v>2058</v>
       </c>
       <c r="E10" s="1">
-        <v>1656</v>
+        <v>1268</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>1024</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2453,7 +2462,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>2.737619876861572</v>
+        <v>2.726397037506104</v>
       </c>
       <c r="C11" s="1">
         <v>1104</v>
@@ -2479,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>2.628511905670166</v>
+        <v>2.617736339569092</v>
       </c>
       <c r="C12" s="1">
         <v>1060</v>
@@ -2505,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>2.469809293746948</v>
+        <v>2.459684371948242</v>
       </c>
       <c r="C13" s="1">
         <v>996</v>
@@ -2531,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>2.303667545318604</v>
+        <v>2.294223785400391</v>
       </c>
       <c r="C14" s="1">
         <v>929</v>
@@ -2557,7 +2566,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>2.177201271057129</v>
+        <v>2.168276071548462</v>
       </c>
       <c r="C15" s="1">
         <v>878</v>
@@ -2583,7 +2592,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>2.01353931427002</v>
+        <v>2.005284786224365</v>
       </c>
       <c r="C16" s="1">
         <v>812</v>
@@ -2609,16 +2618,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="2">
-        <v>1.934188008308411</v>
+        <v>2.005284786224365</v>
       </c>
       <c r="C17" s="1">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
       </c>
       <c r="E17" s="1">
-        <v>760</v>
+        <v>792</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2635,16 +2644,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>1.874674558639526</v>
+        <v>1.857111096382141</v>
       </c>
       <c r="C18" s="1">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D18" s="1">
         <v>8</v>
       </c>
       <c r="E18" s="1">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2661,7 +2670,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.775485396385193</v>
+        <v>1.768206834793091</v>
       </c>
       <c r="C19" s="1">
         <v>716</v>
@@ -2687,7 +2696,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.725890874862671</v>
+        <v>1.718815565109253</v>
       </c>
       <c r="C20" s="1">
         <v>696</v>
@@ -2713,16 +2722,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.646539568901062</v>
+        <v>1.654606938362122</v>
       </c>
       <c r="C21" s="1">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2739,16 +2748,16 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.408485651016235</v>
+        <v>1.639789581298828</v>
       </c>
       <c r="C22" s="1">
-        <v>568</v>
+        <v>664</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>568</v>
+        <v>664</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2765,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.200188517570496</v>
+        <v>1.195268273353577</v>
       </c>
       <c r="C23" s="1">
         <v>484</v>
@@ -2791,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.180350661277771</v>
+        <v>1.175511837005615</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2814,25 +2823,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1.021648049354553</v>
+        <v>1.056972861289978</v>
       </c>
       <c r="C25" s="1">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="D25" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2840,25 +2849,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
-        <v>0.915019690990448</v>
+        <v>1.017459750175476</v>
       </c>
       <c r="C26" s="1">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E26" s="1">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2866,77 +2875,77 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9125399589538574</v>
+        <v>0.9112685918807983</v>
       </c>
       <c r="C27" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D27" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2">
-        <v>0.8629454374313355</v>
+        <v>0.9087990522384644</v>
       </c>
       <c r="C28" s="1">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="D28" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8282292485237122</v>
+        <v>0.8594077825546265</v>
       </c>
       <c r="C29" s="1">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2947,16 +2956,16 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.823269784450531</v>
+        <v>0.8248339295387268</v>
       </c>
       <c r="C30" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2973,19 +2982,19 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.7439184784889221</v>
+        <v>0.8198947906494141</v>
       </c>
       <c r="C31" s="1">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="F31" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -2999,19 +3008,19 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.6844049692153931</v>
+        <v>0.7408688068389893</v>
       </c>
       <c r="C32" s="1">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F32" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -3022,54 +3031,54 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6744861006736755</v>
+        <v>0.6815992593765259</v>
       </c>
       <c r="C33" s="1">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D33" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="F33" s="1">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6695266366004944</v>
+        <v>0.6717210412025452</v>
       </c>
       <c r="C34" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E34" s="1">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3077,16 +3086,16 @@
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>0.5653780102729797</v>
+        <v>0.6667819023132324</v>
       </c>
       <c r="C35" s="1">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3103,16 +3112,16 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5504996776580811</v>
+        <v>0.5630602836608887</v>
       </c>
       <c r="C36" s="1">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3126,25 +3135,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4959456324577332</v>
+        <v>0.5482429265975952</v>
       </c>
       <c r="C37" s="1">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D37" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -3152,25 +3161,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4612294435501099</v>
+        <v>0.4939125180244446</v>
       </c>
       <c r="C38" s="1">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -3181,16 +3190,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4364321529865265</v>
+        <v>0.4593386650085449</v>
       </c>
       <c r="C39" s="1">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3207,16 +3216,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4215537905693054</v>
+        <v>0.434643030166626</v>
       </c>
       <c r="C40" s="1">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3233,16 +3242,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4017159640789032</v>
+        <v>0.4198256433010101</v>
       </c>
       <c r="C41" s="1">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3259,16 +3268,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>0.3967565298080444</v>
+        <v>0.4000691473484039</v>
       </c>
       <c r="C42" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3285,16 +3294,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3868376016616821</v>
+        <v>0.3951300084590912</v>
       </c>
       <c r="C43" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -3311,16 +3320,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3074862957000732</v>
+        <v>0.3852517604827881</v>
       </c>
       <c r="C44" s="1">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3337,16 +3346,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.2926079332828522</v>
+        <v>0.3062257766723633</v>
       </c>
       <c r="C45" s="1">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3363,16 +3372,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.287648469209671</v>
+        <v>0.2914083898067474</v>
       </c>
       <c r="C46" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -3389,16 +3398,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2777295708656311</v>
+        <v>0.2864692807197571</v>
       </c>
       <c r="C47" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -3415,7 +3424,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2777295708656311</v>
+        <v>0.2765910029411316</v>
       </c>
       <c r="C48" s="1">
         <v>112</v>
@@ -3441,16 +3450,16 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.27277010679245</v>
+        <v>0.2765910029411316</v>
       </c>
       <c r="C49" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -3467,19 +3476,19 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2578917443752289</v>
+        <v>0.2716518938541412</v>
       </c>
       <c r="C50" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F50" s="1">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -3493,19 +3502,19 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2479728162288666</v>
+        <v>0.2568345069885254</v>
       </c>
       <c r="C51" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -3519,16 +3528,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2430133670568466</v>
+        <v>0.2469562590122223</v>
       </c>
       <c r="C52" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -3545,16 +3554,16 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2380539029836655</v>
+        <v>0.2420171350240707</v>
       </c>
       <c r="C53" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -3571,16 +3580,16 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2330944538116455</v>
+        <v>0.2370780110359192</v>
       </c>
       <c r="C54" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -3597,16 +3606,16 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2132566273212433</v>
+        <v>0.2321388870477676</v>
       </c>
       <c r="C55" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -3623,16 +3632,16 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.1884593516588211</v>
+        <v>0.2123823910951614</v>
       </c>
       <c r="C56" s="1">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -3649,16 +3658,16 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.17854043841362</v>
+        <v>0.1876867562532425</v>
       </c>
       <c r="C57" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -3675,16 +3684,16 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1636620610952377</v>
+        <v>0.1778085082769394</v>
       </c>
       <c r="C58" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -3701,7 +3710,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1636620610952377</v>
+        <v>0.1629911363124847</v>
       </c>
       <c r="C59" s="1">
         <v>66</v>
@@ -3727,16 +3736,16 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1587026119232178</v>
+        <v>0.1629911363124847</v>
       </c>
       <c r="C60" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -3753,16 +3762,16 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1537431478500366</v>
+        <v>0.1580520123243332</v>
       </c>
       <c r="C61" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -3779,16 +3788,16 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1487836986780167</v>
+        <v>0.1531128883361816</v>
       </c>
       <c r="C62" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -3805,16 +3814,16 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1388647854328156</v>
+        <v>0.1481737643480301</v>
       </c>
       <c r="C63" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -3831,7 +3840,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1388647854328156</v>
+        <v>0.1382955014705658</v>
       </c>
       <c r="C64" s="1">
         <v>56</v>
@@ -3857,7 +3866,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1388647854328156</v>
+        <v>0.1382955014705658</v>
       </c>
       <c r="C65" s="1">
         <v>56</v>
@@ -3883,16 +3892,16 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1289458721876144</v>
+        <v>0.1382955014705658</v>
       </c>
       <c r="C66" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3909,16 +3918,16 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1239864081144333</v>
+        <v>0.1284172534942627</v>
       </c>
       <c r="C67" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3935,16 +3944,16 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1190269514918327</v>
+        <v>0.1234781295061112</v>
       </c>
       <c r="C68" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3961,7 +3970,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1190269514918327</v>
+        <v>0.1185390055179596</v>
       </c>
       <c r="C69" s="1">
         <v>48</v>
@@ -3987,7 +3996,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1190269514918327</v>
+        <v>0.1185390055179596</v>
       </c>
       <c r="C70" s="1">
         <v>48</v>
@@ -4013,16 +4022,16 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1140674948692322</v>
+        <v>0.1185390055179596</v>
       </c>
       <c r="C71" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -4039,16 +4048,16 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.1091080382466316</v>
+        <v>0.113599881529808</v>
       </c>
       <c r="C72" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -4065,16 +4074,16 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.09918913245201111</v>
+        <v>0.1086607575416565</v>
       </c>
       <c r="C73" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -4091,7 +4100,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.09918913245201111</v>
+        <v>0.0987825021147728</v>
       </c>
       <c r="C74" s="1">
         <v>40</v>
@@ -4117,7 +4126,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.09918913245201111</v>
+        <v>0.0987825021147728</v>
       </c>
       <c r="C75" s="1">
         <v>40</v>
@@ -4143,16 +4152,16 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.09422967582941055</v>
+        <v>0.0987825021147728</v>
       </c>
       <c r="C76" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -4169,16 +4178,16 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.08927021920681</v>
+        <v>0.09384337812662125</v>
       </c>
       <c r="C77" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -4195,7 +4204,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.08927021920681</v>
+        <v>0.0889042541384697</v>
       </c>
       <c r="C78" s="1">
         <v>36</v>
@@ -4221,7 +4230,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.08927021920681</v>
+        <v>0.0889042541384697</v>
       </c>
       <c r="C79" s="1">
         <v>36</v>
@@ -4247,7 +4256,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.08927021920681</v>
+        <v>0.0889042541384697</v>
       </c>
       <c r="C80" s="1">
         <v>36</v>
@@ -4273,16 +4282,16 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.08431076258420944</v>
+        <v>0.0889042541384697</v>
       </c>
       <c r="C81" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -4299,7 +4308,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08431076258420944</v>
+        <v>0.08396513015031815</v>
       </c>
       <c r="C82" s="1">
         <v>34</v>
@@ -4325,16 +4334,16 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.07935130596160889</v>
+        <v>0.08396513015031815</v>
       </c>
       <c r="C83" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -4351,16 +4360,16 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.07439184933900833</v>
+        <v>0.0790260061621666</v>
       </c>
       <c r="C84" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -4377,7 +4386,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07439184933900833</v>
+        <v>0.07408688217401505</v>
       </c>
       <c r="C85" s="1">
         <v>30</v>
@@ -4403,16 +4412,16 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.06943239271640778</v>
+        <v>0.07408688217401505</v>
       </c>
       <c r="C86" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -4429,16 +4438,16 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.06447293609380722</v>
+        <v>0.0691477507352829</v>
       </c>
       <c r="C87" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -4455,16 +4464,16 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.05951347574591637</v>
+        <v>0.06420862674713135</v>
       </c>
       <c r="C88" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -4481,16 +4490,16 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.04959456622600555</v>
+        <v>0.0592695027589798</v>
       </c>
       <c r="C89" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -4507,7 +4516,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.04959456622600555</v>
+        <v>0.0493912510573864</v>
       </c>
       <c r="C90" s="1">
         <v>20</v>
@@ -4533,16 +4542,16 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.044635109603405</v>
+        <v>0.0493912510573864</v>
       </c>
       <c r="C91" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -4559,7 +4568,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.044635109603405</v>
+        <v>0.04445212706923485</v>
       </c>
       <c r="C92" s="1">
         <v>18</v>
@@ -4582,25 +4591,25 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.03967565298080444</v>
+        <v>0.04445212706923485</v>
       </c>
       <c r="C93" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
@@ -4608,25 +4617,25 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B94" s="2">
-        <v>0.03471619635820389</v>
+        <v>0.0395130030810833</v>
       </c>
       <c r="C94" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
@@ -4637,16 +4646,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.02479728311300278</v>
+        <v>0.03457387536764145</v>
       </c>
       <c r="C95" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -4663,7 +4672,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.02479728311300278</v>
+        <v>0.0246956255286932</v>
       </c>
       <c r="C96" s="1">
         <v>10</v>
@@ -4689,16 +4698,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.01983782649040222</v>
+        <v>0.0246956255286932</v>
       </c>
       <c r="C97" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -4715,7 +4724,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.01983782649040222</v>
+        <v>0.01975650154054165</v>
       </c>
       <c r="C98" s="1">
         <v>8</v>
@@ -4738,25 +4747,25 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.009918913245201111</v>
+        <v>0.01975650154054165</v>
       </c>
       <c r="C99" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -4764,59 +4773,85 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="B100" s="2">
-        <v>0.009918913245201111</v>
+        <v>0.009878250770270824</v>
       </c>
       <c r="C100" s="1">
         <v>4</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
         <v>4</v>
       </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
       <c r="H100" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.009878250770270824</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H101">
+      <c r="H102">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>

--- a/Routine/13-综合示例/Project/Project_analysis.xlsx
+++ b/Routine/13-综合示例/Project/Project_analysis.xlsx
@@ -938,301 +938,301 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12.76270008087158</c:v>
+                  <c:v>12.74758911132813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.532511711120606</c:v>
+                  <c:v>9.521224975585938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.364062786102295</c:v>
+                  <c:v>6.435460567474365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.744202613830566</c:v>
+                  <c:v>5.737401485443115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.699750423431397</c:v>
+                  <c:v>5.693002223968506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.731681823730469</c:v>
+                  <c:v>4.726079940795898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.227891445159912</c:v>
+                  <c:v>4.222885608673096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.156100988388062</c:v>
+                  <c:v>3.191830396652222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.726397037506104</c:v>
+                  <c:v>2.723169088363648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.617736339569092</c:v>
+                  <c:v>2.614637136459351</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.459684371948242</c:v>
+                  <c:v>2.456772089004517</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.294223785400391</c:v>
+                  <c:v>2.291507244110107</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.168276071548462</c:v>
+                  <c:v>2.165708780288696</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.005284786224365</c:v>
+                  <c:v>2.002910614013672</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.005284786224365</c:v>
+                  <c:v>2.002910614013672</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.857111096382141</c:v>
+                  <c:v>1.854912281036377</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.768206834793091</c:v>
+                  <c:v>1.76611328125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.718815565109253</c:v>
+                  <c:v>1.716780543327332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.654606938362122</c:v>
+                  <c:v>1.652647972106934</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.639789581298828</c:v>
+                  <c:v>1.637848138809204</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.195268273353577</c:v>
+                  <c:v>1.193853139877319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.175511837005615</c:v>
+                  <c:v>1.17412006855011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.056972861289978</c:v>
+                  <c:v>1.055721402168274</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.017459750175476</c:v>
+                  <c:v>1.016255140304565</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9112685918807983</c:v>
+                  <c:v>0.910189688205719</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9087990522384644</c:v>
+                  <c:v>0.907723069190979</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8594077825546265</c:v>
+                  <c:v>0.8583902716636658</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8248339295387268</c:v>
+                  <c:v>0.823857307434082</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8198947906494141</c:v>
+                  <c:v>0.8189240694046021</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7408688068389893</c:v>
+                  <c:v>0.7399916052818298</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6815992593765259</c:v>
+                  <c:v>0.6807922720909119</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6717210412025452</c:v>
+                  <c:v>0.6709257364273071</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6667819023132324</c:v>
+                  <c:v>0.6659924387931824</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5630602836608887</c:v>
+                  <c:v>0.5623936057090759</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5482429265975952</c:v>
+                  <c:v>0.5475937724113464</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4939125180244446</c:v>
+                  <c:v>0.4933277368545532</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4593386650085449</c:v>
+                  <c:v>0.4587948024272919</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.434643030166626</c:v>
+                  <c:v>0.4341284036636353</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4198256433010101</c:v>
+                  <c:v>0.4193285703659058</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4000691473484039</c:v>
+                  <c:v>0.3995954692363739</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3951300084590912</c:v>
+                  <c:v>0.3946622014045715</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3852517604827881</c:v>
+                  <c:v>0.3847956359386444</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3062257766723633</c:v>
+                  <c:v>0.3058632016181946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2914083898067474</c:v>
+                  <c:v>0.2910633683204651</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2864692807197571</c:v>
+                  <c:v>0.2861301004886627</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2765910029411316</c:v>
+                  <c:v>0.2762635350227356</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2765910029411316</c:v>
+                  <c:v>0.2762635350227356</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2716518938541412</c:v>
+                  <c:v>0.2713302671909332</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2568345069885254</c:v>
+                  <c:v>0.2565304338932037</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2469562590122223</c:v>
+                  <c:v>0.2466638684272766</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2420171350240707</c:v>
+                  <c:v>0.2417306005954742</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2370780110359192</c:v>
+                  <c:v>0.2367973178625107</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.2321388870477676</c:v>
+                  <c:v>0.2318640351295471</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2123823910951614</c:v>
+                  <c:v>0.2121309340000153</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1876867562532425</c:v>
+                  <c:v>0.1874645352363586</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1778085082769394</c:v>
+                  <c:v>0.1775979846715927</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1629911363124847</c:v>
+                  <c:v>0.1627981513738632</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1629911363124847</c:v>
+                  <c:v>0.1627981513738632</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1580520123243332</c:v>
+                  <c:v>0.1578648835420609</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1531128883361816</c:v>
+                  <c:v>0.1529316008090973</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1481737643480301</c:v>
+                  <c:v>0.1479983180761337</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1382955014705658</c:v>
+                  <c:v>0.1381317675113678</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1382955014705658</c:v>
+                  <c:v>0.1381317675113678</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1382955014705658</c:v>
+                  <c:v>0.1381317675113678</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1284172534942627</c:v>
+                  <c:v>0.1282652169466019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1234781295061112</c:v>
+                  <c:v>0.1233319342136383</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1185390055179596</c:v>
+                  <c:v>0.1183986589312553</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1185390055179596</c:v>
+                  <c:v>0.1183986589312553</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1185390055179596</c:v>
+                  <c:v>0.1183986589312553</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.113599881529808</c:v>
+                  <c:v>0.1134653836488724</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1086607575416565</c:v>
+                  <c:v>0.1085321009159088</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0987825021147728</c:v>
+                  <c:v>0.09866555035114288</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0987825021147728</c:v>
+                  <c:v>0.09866555035114288</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0987825021147728</c:v>
+                  <c:v>0.09866555035114288</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09384337812662125</c:v>
+                  <c:v>0.09373226761817932</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0889042541384697</c:v>
+                  <c:v>0.08879899233579636</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0889042541384697</c:v>
+                  <c:v>0.08879899233579636</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0889042541384697</c:v>
+                  <c:v>0.08879899233579636</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0889042541384697</c:v>
+                  <c:v>0.08879899233579636</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.08396513015031815</c:v>
+                  <c:v>0.08386571705341339</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.08396513015031815</c:v>
+                  <c:v>0.08386571705341339</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0790260061621666</c:v>
+                  <c:v>0.07893244177103043</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.07408688217401505</c:v>
+                  <c:v>0.07399915903806686</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.07408688217401505</c:v>
+                  <c:v>0.07399915903806686</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0691477507352829</c:v>
+                  <c:v>0.0690658837556839</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.06420862674713135</c:v>
+                  <c:v>0.06413260847330093</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0592695027589798</c:v>
+                  <c:v>0.05919932946562767</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0493912510573864</c:v>
+                  <c:v>0.04933277517557144</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0493912510573864</c:v>
+                  <c:v>0.04933277517557144</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.04445212706923485</c:v>
+                  <c:v>0.04439949616789818</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.04445212706923485</c:v>
+                  <c:v>0.04439949616789818</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0395130030810833</c:v>
+                  <c:v>0.03946622088551521</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.03457387536764145</c:v>
+                  <c:v>0.03453294187784195</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0246956255286932</c:v>
+                  <c:v>0.02466638758778572</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0246956255286932</c:v>
+                  <c:v>0.02466638758778572</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.01975650154054165</c:v>
+                  <c:v>0.01973311044275761</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.01975650154054165</c:v>
+                  <c:v>0.01973311044275761</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.009878250770270824</c:v>
+                  <c:v>0.009866555221378803</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.009878250770270824</c:v>
+                  <c:v>0.009866555221378803</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -1734,10 +1734,10 @@
         <v>2058</v>
       </c>
       <c r="D4" s="1">
-        <v>1278</v>
+        <v>1294</v>
       </c>
       <c r="E4" s="1">
-        <v>1268</v>
+        <v>1284</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>1233</v>
       </c>
       <c r="D5" s="1">
-        <v>2577</v>
+        <v>2609</v>
       </c>
       <c r="E5" s="1">
-        <v>2576</v>
+        <v>2608</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>12.76270008087158</v>
+        <v>12.74758911132813</v>
       </c>
       <c r="C3" s="1">
         <v>5168</v>
@@ -2280,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2">
-        <v>9.532511711120606</v>
+        <v>9.521224975585938</v>
       </c>
       <c r="C4" s="1">
         <v>3860</v>
@@ -2306,16 +2306,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>6.364062786102295</v>
+        <v>6.435460567474365</v>
       </c>
       <c r="C5" s="1">
-        <v>2577</v>
+        <v>2609</v>
       </c>
       <c r="D5" s="1">
         <v>1233</v>
       </c>
       <c r="E5" s="1">
-        <v>2576</v>
+        <v>2608</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>5.744202613830566</v>
+        <v>5.737401485443115</v>
       </c>
       <c r="C6" s="1">
         <v>2326</v>
@@ -2358,7 +2358,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>5.699750423431397</v>
+        <v>5.693002223968506</v>
       </c>
       <c r="C7" s="1">
         <v>2308</v>
@@ -2384,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>4.731681823730469</v>
+        <v>4.726079940795898</v>
       </c>
       <c r="C8" s="1">
         <v>1916</v>
@@ -2410,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>4.227891445159912</v>
+        <v>4.222885608673096</v>
       </c>
       <c r="C9" s="1">
         <v>1712</v>
@@ -2436,16 +2436,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>3.156100988388062</v>
+        <v>3.191830396652222</v>
       </c>
       <c r="C10" s="1">
-        <v>1278</v>
+        <v>1294</v>
       </c>
       <c r="D10" s="1">
         <v>2058</v>
       </c>
       <c r="E10" s="1">
-        <v>1268</v>
+        <v>1284</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>2.726397037506104</v>
+        <v>2.723169088363648</v>
       </c>
       <c r="C11" s="1">
         <v>1104</v>
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>2.617736339569092</v>
+        <v>2.614637136459351</v>
       </c>
       <c r="C12" s="1">
         <v>1060</v>
@@ -2514,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>2.459684371948242</v>
+        <v>2.456772089004517</v>
       </c>
       <c r="C13" s="1">
         <v>996</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>2.294223785400391</v>
+        <v>2.291507244110107</v>
       </c>
       <c r="C14" s="1">
         <v>929</v>
@@ -2566,7 +2566,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>2.168276071548462</v>
+        <v>2.165708780288696</v>
       </c>
       <c r="C15" s="1">
         <v>878</v>
@@ -2592,7 +2592,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>2.005284786224365</v>
+        <v>2.002910614013672</v>
       </c>
       <c r="C16" s="1">
         <v>812</v>
@@ -2618,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="2">
-        <v>2.005284786224365</v>
+        <v>2.002910614013672</v>
       </c>
       <c r="C17" s="1">
         <v>812</v>
@@ -2644,7 +2644,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>1.857111096382141</v>
+        <v>1.854912281036377</v>
       </c>
       <c r="C18" s="1">
         <v>752</v>
@@ -2670,7 +2670,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>1.768206834793091</v>
+        <v>1.76611328125</v>
       </c>
       <c r="C19" s="1">
         <v>716</v>
@@ -2696,7 +2696,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>1.718815565109253</v>
+        <v>1.716780543327332</v>
       </c>
       <c r="C20" s="1">
         <v>696</v>
@@ -2722,7 +2722,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>1.654606938362122</v>
+        <v>1.652647972106934</v>
       </c>
       <c r="C21" s="1">
         <v>670</v>
@@ -2748,7 +2748,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>1.639789581298828</v>
+        <v>1.637848138809204</v>
       </c>
       <c r="C22" s="1">
         <v>664</v>
@@ -2774,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>1.195268273353577</v>
+        <v>1.193853139877319</v>
       </c>
       <c r="C23" s="1">
         <v>484</v>
@@ -2800,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>1.175511837005615</v>
+        <v>1.17412006855011</v>
       </c>
       <c r="C24" s="1">
         <v>476</v>
@@ -2826,7 +2826,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>1.056972861289978</v>
+        <v>1.055721402168274</v>
       </c>
       <c r="C25" s="1">
         <v>428</v>
@@ -2852,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2">
-        <v>1.017459750175476</v>
+        <v>1.016255140304565</v>
       </c>
       <c r="C26" s="1">
         <v>412</v>
@@ -2878,7 +2878,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>0.9112685918807983</v>
+        <v>0.910189688205719</v>
       </c>
       <c r="C27" s="1">
         <v>369</v>
@@ -2904,7 +2904,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="2">
-        <v>0.9087990522384644</v>
+        <v>0.907723069190979</v>
       </c>
       <c r="C28" s="1">
         <v>368</v>
@@ -2930,7 +2930,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2">
-        <v>0.8594077825546265</v>
+        <v>0.8583902716636658</v>
       </c>
       <c r="C29" s="1">
         <v>348</v>
@@ -2956,7 +2956,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.8248339295387268</v>
+        <v>0.823857307434082</v>
       </c>
       <c r="C30" s="1">
         <v>334</v>
@@ -2982,7 +2982,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.8198947906494141</v>
+        <v>0.8189240694046021</v>
       </c>
       <c r="C31" s="1">
         <v>332</v>
@@ -3008,7 +3008,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.7408688068389893</v>
+        <v>0.7399916052818298</v>
       </c>
       <c r="C32" s="1">
         <v>300</v>
@@ -3034,7 +3034,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.6815992593765259</v>
+        <v>0.6807922720909119</v>
       </c>
       <c r="C33" s="1">
         <v>276</v>
@@ -3060,7 +3060,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>0.6717210412025452</v>
+        <v>0.6709257364273071</v>
       </c>
       <c r="C34" s="1">
         <v>272</v>
@@ -3086,7 +3086,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>0.6667819023132324</v>
+        <v>0.6659924387931824</v>
       </c>
       <c r="C35" s="1">
         <v>270</v>
@@ -3112,7 +3112,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>0.5630602836608887</v>
+        <v>0.5623936057090759</v>
       </c>
       <c r="C36" s="1">
         <v>228</v>
@@ -3138,7 +3138,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>0.5482429265975952</v>
+        <v>0.5475937724113464</v>
       </c>
       <c r="C37" s="1">
         <v>222</v>
@@ -3164,7 +3164,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4939125180244446</v>
+        <v>0.4933277368545532</v>
       </c>
       <c r="C38" s="1">
         <v>200</v>
@@ -3190,7 +3190,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4593386650085449</v>
+        <v>0.4587948024272919</v>
       </c>
       <c r="C39" s="1">
         <v>186</v>
@@ -3216,7 +3216,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>0.434643030166626</v>
+        <v>0.4341284036636353</v>
       </c>
       <c r="C40" s="1">
         <v>176</v>
@@ -3242,7 +3242,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4198256433010101</v>
+        <v>0.4193285703659058</v>
       </c>
       <c r="C41" s="1">
         <v>170</v>
@@ -3268,7 +3268,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4000691473484039</v>
+        <v>0.3995954692363739</v>
       </c>
       <c r="C42" s="1">
         <v>162</v>
@@ -3294,7 +3294,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3951300084590912</v>
+        <v>0.3946622014045715</v>
       </c>
       <c r="C43" s="1">
         <v>160</v>
@@ -3320,7 +3320,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>0.3852517604827881</v>
+        <v>0.3847956359386444</v>
       </c>
       <c r="C44" s="1">
         <v>156</v>
@@ -3346,7 +3346,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>0.3062257766723633</v>
+        <v>0.3058632016181946</v>
       </c>
       <c r="C45" s="1">
         <v>124</v>
@@ -3372,7 +3372,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>0.2914083898067474</v>
+        <v>0.2910633683204651</v>
       </c>
       <c r="C46" s="1">
         <v>118</v>
@@ -3398,7 +3398,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>0.2864692807197571</v>
+        <v>0.2861301004886627</v>
       </c>
       <c r="C47" s="1">
         <v>116</v>
@@ -3424,7 +3424,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>0.2765910029411316</v>
+        <v>0.2762635350227356</v>
       </c>
       <c r="C48" s="1">
         <v>112</v>
@@ -3450,7 +3450,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2">
-        <v>0.2765910029411316</v>
+        <v>0.2762635350227356</v>
       </c>
       <c r="C49" s="1">
         <v>112</v>
@@ -3476,7 +3476,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2">
-        <v>0.2716518938541412</v>
+        <v>0.2713302671909332</v>
       </c>
       <c r="C50" s="1">
         <v>110</v>
@@ -3502,7 +3502,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>0.2568345069885254</v>
+        <v>0.2565304338932037</v>
       </c>
       <c r="C51" s="1">
         <v>104</v>
@@ -3528,7 +3528,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2469562590122223</v>
+        <v>0.2466638684272766</v>
       </c>
       <c r="C52" s="1">
         <v>100</v>
@@ -3554,7 +3554,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2">
-        <v>0.2420171350240707</v>
+        <v>0.2417306005954742</v>
       </c>
       <c r="C53" s="1">
         <v>98</v>
@@ -3580,7 +3580,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2">
-        <v>0.2370780110359192</v>
+        <v>0.2367973178625107</v>
       </c>
       <c r="C54" s="1">
         <v>96</v>
@@ -3606,7 +3606,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2">
-        <v>0.2321388870477676</v>
+        <v>0.2318640351295471</v>
       </c>
       <c r="C55" s="1">
         <v>94</v>
@@ -3632,7 +3632,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2">
-        <v>0.2123823910951614</v>
+        <v>0.2121309340000153</v>
       </c>
       <c r="C56" s="1">
         <v>86</v>
@@ -3658,7 +3658,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2">
-        <v>0.1876867562532425</v>
+        <v>0.1874645352363586</v>
       </c>
       <c r="C57" s="1">
         <v>76</v>
@@ -3684,7 +3684,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>0.1778085082769394</v>
+        <v>0.1775979846715927</v>
       </c>
       <c r="C58" s="1">
         <v>72</v>
@@ -3710,7 +3710,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>0.1629911363124847</v>
+        <v>0.1627981513738632</v>
       </c>
       <c r="C59" s="1">
         <v>66</v>
@@ -3736,7 +3736,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1629911363124847</v>
+        <v>0.1627981513738632</v>
       </c>
       <c r="C60" s="1">
         <v>66</v>
@@ -3762,7 +3762,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2">
-        <v>0.1580520123243332</v>
+        <v>0.1578648835420609</v>
       </c>
       <c r="C61" s="1">
         <v>64</v>
@@ -3788,7 +3788,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2">
-        <v>0.1531128883361816</v>
+        <v>0.1529316008090973</v>
       </c>
       <c r="C62" s="1">
         <v>62</v>
@@ -3814,7 +3814,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>0.1481737643480301</v>
+        <v>0.1479983180761337</v>
       </c>
       <c r="C63" s="1">
         <v>60</v>
@@ -3840,7 +3840,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1382955014705658</v>
+        <v>0.1381317675113678</v>
       </c>
       <c r="C64" s="1">
         <v>56</v>
@@ -3866,7 +3866,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2">
-        <v>0.1382955014705658</v>
+        <v>0.1381317675113678</v>
       </c>
       <c r="C65" s="1">
         <v>56</v>
@@ -3892,7 +3892,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2">
-        <v>0.1382955014705658</v>
+        <v>0.1381317675113678</v>
       </c>
       <c r="C66" s="1">
         <v>56</v>
@@ -3918,7 +3918,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>0.1284172534942627</v>
+        <v>0.1282652169466019</v>
       </c>
       <c r="C67" s="1">
         <v>52</v>
@@ -3944,7 +3944,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>0.1234781295061112</v>
+        <v>0.1233319342136383</v>
       </c>
       <c r="C68" s="1">
         <v>50</v>
@@ -3970,7 +3970,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>0.1185390055179596</v>
+        <v>0.1183986589312553</v>
       </c>
       <c r="C69" s="1">
         <v>48</v>
@@ -3996,7 +3996,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2">
-        <v>0.1185390055179596</v>
+        <v>0.1183986589312553</v>
       </c>
       <c r="C70" s="1">
         <v>48</v>
@@ -4022,7 +4022,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>0.1185390055179596</v>
+        <v>0.1183986589312553</v>
       </c>
       <c r="C71" s="1">
         <v>48</v>
@@ -4048,7 +4048,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>0.113599881529808</v>
+        <v>0.1134653836488724</v>
       </c>
       <c r="C72" s="1">
         <v>46</v>
@@ -4074,7 +4074,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2">
-        <v>0.1086607575416565</v>
+        <v>0.1085321009159088</v>
       </c>
       <c r="C73" s="1">
         <v>44</v>
@@ -4100,7 +4100,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>0.0987825021147728</v>
+        <v>0.09866555035114288</v>
       </c>
       <c r="C74" s="1">
         <v>40</v>
@@ -4126,7 +4126,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2">
-        <v>0.0987825021147728</v>
+        <v>0.09866555035114288</v>
       </c>
       <c r="C75" s="1">
         <v>40</v>
@@ -4152,7 +4152,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2">
-        <v>0.0987825021147728</v>
+        <v>0.09866555035114288</v>
       </c>
       <c r="C76" s="1">
         <v>40</v>
@@ -4178,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>0.09384337812662125</v>
+        <v>0.09373226761817932</v>
       </c>
       <c r="C77" s="1">
         <v>38</v>
@@ -4204,7 +4204,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0889042541384697</v>
+        <v>0.08879899233579636</v>
       </c>
       <c r="C78" s="1">
         <v>36</v>
@@ -4230,7 +4230,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>0.0889042541384697</v>
+        <v>0.08879899233579636</v>
       </c>
       <c r="C79" s="1">
         <v>36</v>
@@ -4256,7 +4256,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2">
-        <v>0.0889042541384697</v>
+        <v>0.08879899233579636</v>
       </c>
       <c r="C80" s="1">
         <v>36</v>
@@ -4282,7 +4282,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>0.0889042541384697</v>
+        <v>0.08879899233579636</v>
       </c>
       <c r="C81" s="1">
         <v>36</v>
@@ -4308,7 +4308,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>0.08396513015031815</v>
+        <v>0.08386571705341339</v>
       </c>
       <c r="C82" s="1">
         <v>34</v>
@@ -4334,7 +4334,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>0.08396513015031815</v>
+        <v>0.08386571705341339</v>
       </c>
       <c r="C83" s="1">
         <v>34</v>
@@ -4360,7 +4360,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2">
-        <v>0.0790260061621666</v>
+        <v>0.07893244177103043</v>
       </c>
       <c r="C84" s="1">
         <v>32</v>
@@ -4386,7 +4386,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2">
-        <v>0.07408688217401505</v>
+        <v>0.07399915903806686</v>
       </c>
       <c r="C85" s="1">
         <v>30</v>
@@ -4412,7 +4412,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2">
-        <v>0.07408688217401505</v>
+        <v>0.07399915903806686</v>
       </c>
       <c r="C86" s="1">
         <v>30</v>
@@ -4438,7 +4438,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>0.0691477507352829</v>
+        <v>0.0690658837556839</v>
       </c>
       <c r="C87" s="1">
         <v>28</v>
@@ -4464,7 +4464,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>0.06420862674713135</v>
+        <v>0.06413260847330093</v>
       </c>
       <c r="C88" s="1">
         <v>26</v>
@@ -4490,7 +4490,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2">
-        <v>0.0592695027589798</v>
+        <v>0.05919932946562767</v>
       </c>
       <c r="C89" s="1">
         <v>24</v>
@@ -4516,7 +4516,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>0.0493912510573864</v>
+        <v>0.04933277517557144</v>
       </c>
       <c r="C90" s="1">
         <v>20</v>
@@ -4542,7 +4542,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>0.0493912510573864</v>
+        <v>0.04933277517557144</v>
       </c>
       <c r="C91" s="1">
         <v>20</v>
@@ -4568,7 +4568,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>0.04445212706923485</v>
+        <v>0.04439949616789818</v>
       </c>
       <c r="C92" s="1">
         <v>18</v>
@@ -4594,7 +4594,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2">
-        <v>0.04445212706923485</v>
+        <v>0.04439949616789818</v>
       </c>
       <c r="C93" s="1">
         <v>18</v>
@@ -4620,7 +4620,7 @@
         <v>16</v>
       </c>
       <c r="B94" s="2">
-        <v>0.0395130030810833</v>
+        <v>0.03946622088551521</v>
       </c>
       <c r="C94" s="1">
         <v>16</v>
@@ -4646,7 +4646,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>0.03457387536764145</v>
+        <v>0.03453294187784195</v>
       </c>
       <c r="C95" s="1">
         <v>14</v>
@@ -4672,7 +4672,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>0.0246956255286932</v>
+        <v>0.02466638758778572</v>
       </c>
       <c r="C96" s="1">
         <v>10</v>
@@ -4698,7 +4698,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>0.0246956255286932</v>
+        <v>0.02466638758778572</v>
       </c>
       <c r="C97" s="1">
         <v>10</v>
@@ -4724,7 +4724,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>0.01975650154054165</v>
+        <v>0.01973311044275761</v>
       </c>
       <c r="C98" s="1">
         <v>8</v>
@@ -4750,7 +4750,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>0.01975650154054165</v>
+        <v>0.01973311044275761</v>
       </c>
       <c r="C99" s="1">
         <v>8</v>
@@ -4776,7 +4776,7 @@
         <v>15</v>
       </c>
       <c r="B100" s="2">
-        <v>0.009878250770270824</v>
+        <v>0.009866555221378803</v>
       </c>
       <c r="C100" s="1">
         <v>4</v>
@@ -4802,7 +4802,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>0.009878250770270824</v>
+        <v>0.009866555221378803</v>
       </c>
       <c r="C101" s="1">
         <v>4</v>
